--- a/material/DEM_input_and_results_for_tutorials/dem_Tutorial_2/00_custom_district_data/EGID_list.xlsx
+++ b/material/DEM_input_and_results_for_tutorials/dem_Tutorial_2/00_custom_district_data/EGID_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hsluzern-my.sharepoint.com/personal/ueli_schilt_hslu_ch/Documents/02_Github_DEM_Doc/DEM_Documentation/material/DEM_input_and_results_for_tutorials/dem_Tutorial_2/custom_district/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hsluzern-my.sharepoint.com/personal/ueli_schilt_hslu_ch/Documents/02_Github_DEM_Doc/DEM_Documentation/material/DEM_input_and_results_for_tutorials/dem_Tutorial_2/00_custom_district_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="91" documentId="11_AD4DB114E441178AC67DF4A93E10D98C683EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC60DBEA-FCF1-4728-8F37-87C8DF75A6CB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
